--- a/clutch_poy_winners.xlsx
+++ b/clutch_poy_winners.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
-  <si>
-    <t>year_x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+  <si>
+    <t>season_ending_year_x</t>
   </si>
   <si>
     <t>award</t>
@@ -58,7 +58,7 @@
     <t>seas_id_y</t>
   </si>
   <si>
-    <t>year_y</t>
+    <t>season_ending_year_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>2024</t>
@@ -560,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX3"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,22 +720,25 @@
       <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>45</v>
@@ -747,7 +753,7 @@
         <v>0.602</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2">
         <v>31786</v>
@@ -756,19 +762,22 @@
         <v>3903</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2">
         <v>31786</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="Q2">
+        <v>1989</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S2">
         <v>35</v>
@@ -777,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W2">
         <v>74</v>
@@ -858,30 +867,33 @@
         <v>26.4</v>
       </c>
       <c r="AV2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AW2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AX2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="AY2">
+        <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>91</v>
@@ -896,7 +908,7 @@
         <v>0.92</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3">
         <v>30585</v>
@@ -905,19 +917,22 @@
         <v>4489</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3">
         <v>30585</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="Q3">
+        <v>1998</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S3">
         <v>25</v>
@@ -926,10 +941,10 @@
         <v>6</v>
       </c>
       <c r="U3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W3">
         <v>73</v>
@@ -1007,13 +1022,16 @@
         <v>25</v>
       </c>
       <c r="AV3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AW3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AX3" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="AY3">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>

--- a/clutch_poy_winners.xlsx
+++ b/clutch_poy_winners.xlsx
@@ -774,13 +774,13 @@
         <v>54</v>
       </c>
       <c r="Q2">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R2" t="s">
         <v>61</v>
       </c>
       <c r="S2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2">
         <v>15</v>
@@ -929,13 +929,13 @@
         <v>55</v>
       </c>
       <c r="Q3">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="R3" t="s">
         <v>61</v>
       </c>
       <c r="S3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T3">
         <v>6</v>

--- a/clutch_poy_winners.xlsx
+++ b/clutch_poy_winners.xlsx
@@ -46,19 +46,19 @@
     <t>winner</t>
   </si>
   <si>
-    <t>seas_id_x</t>
-  </si>
-  <si>
-    <t>player_id</t>
+    <t>seas_id</t>
+  </si>
+  <si>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>season_x</t>
   </si>
   <si>
-    <t>seas_id_y</t>
-  </si>
-  <si>
     <t>season_ending_year_y</t>
+  </si>
+  <si>
+    <t>player_id_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -764,11 +764,11 @@
       <c r="M2" t="s">
         <v>59</v>
       </c>
-      <c r="N2">
-        <v>31786</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
+      </c>
+      <c r="O2">
+        <v>4666</v>
       </c>
       <c r="P2" t="s">
         <v>54</v>
@@ -919,11 +919,11 @@
       <c r="M3" t="s">
         <v>60</v>
       </c>
-      <c r="N3">
-        <v>30585</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>52</v>
+      </c>
+      <c r="O3">
+        <v>1255</v>
       </c>
       <c r="P3" t="s">
         <v>55</v>

--- a/clutch_poy_winners.xlsx
+++ b/clutch_poy_winners.xlsx
@@ -768,7 +768,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>4666</v>
+        <v>4673</v>
       </c>
       <c r="P2" t="s">
         <v>54</v>
@@ -923,7 +923,7 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="P3" t="s">
         <v>55</v>

--- a/clutch_poy_winners.xlsx
+++ b/clutch_poy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -199,10 +199,19 @@
     <t>2022-23</t>
   </si>
   <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>NBA</t>
+  </si>
+  <si>
+    <t>ATL</t>
   </si>
   <si>
     <t>No</t>
@@ -768,7 +777,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>4673</v>
+        <v>4671</v>
       </c>
       <c r="P2" t="s">
         <v>54</v>
@@ -777,7 +786,7 @@
         <v>1988</v>
       </c>
       <c r="R2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S2">
         <v>36</v>
@@ -786,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="U2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V2" t="s">
         <v>56</v>
@@ -870,10 +879,10 @@
         <v>59</v>
       </c>
       <c r="AW2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AX2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -926,76 +935,76 @@
         <v>1257</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q3">
         <v>1997</v>
       </c>
       <c r="R3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S3">
         <v>26</v>
       </c>
       <c r="T3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="W3">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="X3">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Y3">
-        <v>33.4</v>
+        <v>31.7</v>
       </c>
       <c r="Z3">
-        <v>9.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="AA3">
-        <v>18.2</v>
+        <v>12.3</v>
       </c>
       <c r="AB3">
-        <v>0.512</v>
+        <v>0.461</v>
       </c>
       <c r="AC3">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD3">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AE3">
-        <v>0.324</v>
+        <v>0.35</v>
       </c>
       <c r="AF3">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="AG3">
-        <v>13.2</v>
+        <v>8</v>
       </c>
       <c r="AH3">
-        <v>0.584</v>
+        <v>0.521</v>
       </c>
       <c r="AI3">
-        <v>0.5570000000000001</v>
+        <v>0.522</v>
       </c>
       <c r="AJ3">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="AK3">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="AL3">
-        <v>0.78</v>
+        <v>0.826</v>
       </c>
       <c r="AM3">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AN3">
         <v>3.6</v>
@@ -1004,31 +1013,31 @@
         <v>4.2</v>
       </c>
       <c r="AP3">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0.3</v>
       </c>
       <c r="AS3">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT3">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AU3">
-        <v>25</v>
+        <v>15.4</v>
       </c>
       <c r="AV3" t="s">
         <v>60</v>
       </c>
       <c r="AW3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AX3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AY3">
         <v>2023</v>
